--- a/data.xlsx
+++ b/data.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">NAMES</t>
   </si>
   <si>
     <t xml:space="preserve">POSITIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,10 @@
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.57"/>
@@ -199,7 +202,9 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
